--- a/Complimiento.xlsx
+++ b/Complimiento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UserQV\Documents\github\uJava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9697CEAB-C215-4269-B7D5-4C3889A0149A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58243BCC-8E47-4ACE-A68E-1AF2C91662A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C043ED23-AC06-48FA-993B-528C89554CB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C043ED23-AC06-48FA-993B-528C89554CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Progreso Semana" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="179">
   <si>
     <t>Sección 1: Fund|amentos Java: Instalación Java y Apache Netbeans</t>
   </si>
@@ -973,7 +973,7 @@
   <dimension ref="A1:D171"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D174" sqref="D174"/>
+      <selection activeCell="D63" sqref="A63:D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1835,7 +1835,7 @@
         <v>36</v>
       </c>
       <c r="D61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1849,7 +1849,7 @@
         <v>43</v>
       </c>
       <c r="D62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1861,9 +1861,6 @@
       </c>
       <c r="C63">
         <v>35</v>
-      </c>
-      <c r="D63" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">

--- a/Complimiento.xlsx
+++ b/Complimiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UserQV\Documents\github\uJava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58243BCC-8E47-4ACE-A68E-1AF2C91662A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EE3877-59E7-4CC4-BCE7-8A5896367D30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C043ED23-AC06-48FA-993B-528C89554CB1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="179">
   <si>
     <t>Sección 1: Fund|amentos Java: Instalación Java y Apache Netbeans</t>
   </si>
@@ -653,10 +653,11 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DEAE52C-A2FD-4FFE-8B2B-0571810F0026}" name="Tabla1" displayName="Tabla1" ref="A1:D171" totalsRowShown="0">
-  <autoFilter ref="A1:D171" xr:uid="{71FC9A5E-EC34-4131-B687-3FC24F34F51F}">
+  <autoFilter ref="A1:D171" xr:uid="{73A5C193-2F8F-42AE-9FBF-54EBDFE725ED}">
     <filterColumn colId="3">
       <filters>
         <filter val="META 22/04"/>
+        <filter val="META 23/04"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -973,14 +974,14 @@
   <dimension ref="A1:D171"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D63" sqref="A63:D63"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1824,7 +1825,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>119</v>
       </c>
@@ -1838,7 +1839,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>121</v>
       </c>
@@ -1852,7 +1853,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>123</v>
       </c>
@@ -1862,8 +1863,11 @@
       <c r="C63">
         <v>35</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>125</v>
       </c>
@@ -1874,10 +1878,10 @@
         <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>127</v>
       </c>
@@ -1888,7 +1892,7 @@
         <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1905,7 +1909,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>131</v>
       </c>

--- a/Complimiento.xlsx
+++ b/Complimiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UserQV\Documents\github\uJava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EE3877-59E7-4CC4-BCE7-8A5896367D30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87514054-C07B-4A63-AECA-A2A3CBF358E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C043ED23-AC06-48FA-993B-528C89554CB1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="178">
   <si>
     <t>Sección 1: Fund|amentos Java: Instalación Java y Apache Netbeans</t>
   </si>
@@ -562,9 +562,6 @@
   </si>
   <si>
     <t>SI</t>
-  </si>
-  <si>
-    <t>META 22/04</t>
   </si>
   <si>
     <t>META 23/04</t>
@@ -653,14 +650,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DEAE52C-A2FD-4FFE-8B2B-0571810F0026}" name="Tabla1" displayName="Tabla1" ref="A1:D171" totalsRowShown="0">
-  <autoFilter ref="A1:D171" xr:uid="{73A5C193-2F8F-42AE-9FBF-54EBDFE725ED}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="META 22/04"/>
-        <filter val="META 23/04"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C171">
     <sortCondition ref="A1:A171"/>
   </sortState>
@@ -973,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4E4640-4D60-4554-A81C-1FFAD78A63CC}">
   <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,7 +988,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1013,7 +1002,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1027,7 +1016,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1041,7 +1030,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -1055,7 +1044,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1069,7 +1058,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -1083,7 +1072,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>13</v>
       </c>
@@ -1097,7 +1086,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>15</v>
       </c>
@@ -1111,7 +1100,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>17</v>
       </c>
@@ -1125,7 +1114,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>19</v>
       </c>
@@ -1139,7 +1128,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>21</v>
       </c>
@@ -1153,7 +1142,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -1167,7 +1156,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>25</v>
       </c>
@@ -1181,7 +1170,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>27</v>
       </c>
@@ -1195,7 +1184,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>29</v>
       </c>
@@ -1209,7 +1198,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31</v>
       </c>
@@ -1223,7 +1212,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>33</v>
       </c>
@@ -1237,7 +1226,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>35</v>
       </c>
@@ -1251,7 +1240,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>37</v>
       </c>
@@ -1265,7 +1254,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>39</v>
       </c>
@@ -1279,7 +1268,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>41</v>
       </c>
@@ -1293,7 +1282,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>43</v>
       </c>
@@ -1307,7 +1296,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>45</v>
       </c>
@@ -1321,7 +1310,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>47</v>
       </c>
@@ -1335,7 +1324,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>49</v>
       </c>
@@ -1349,7 +1338,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>51</v>
       </c>
@@ -1363,7 +1352,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>53</v>
       </c>
@@ -1377,7 +1366,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>55</v>
       </c>
@@ -1391,7 +1380,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>57</v>
       </c>
@@ -1405,7 +1394,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>59</v>
       </c>
@@ -1419,7 +1408,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>61</v>
       </c>
@@ -1433,7 +1422,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>63</v>
       </c>
@@ -1447,7 +1436,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>65</v>
       </c>
@@ -1461,7 +1450,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>67</v>
       </c>
@@ -1475,7 +1464,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>69</v>
       </c>
@@ -1489,7 +1478,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>71</v>
       </c>
@@ -1503,7 +1492,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>73</v>
       </c>
@@ -1517,7 +1506,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>75</v>
       </c>
@@ -1531,7 +1520,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>77</v>
       </c>
@@ -1545,7 +1534,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>79</v>
       </c>
@@ -1559,7 +1548,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>81</v>
       </c>
@@ -1573,7 +1562,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>83</v>
       </c>
@@ -1587,7 +1576,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>85</v>
       </c>
@@ -1601,7 +1590,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>87</v>
       </c>
@@ -1615,7 +1604,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>89</v>
       </c>
@@ -1629,7 +1618,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>91</v>
       </c>
@@ -1643,7 +1632,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>93</v>
       </c>
@@ -1657,7 +1646,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>95</v>
       </c>
@@ -1671,7 +1660,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>97</v>
       </c>
@@ -1685,7 +1674,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>99</v>
       </c>
@@ -1699,7 +1688,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>101</v>
       </c>
@@ -1713,7 +1702,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>103</v>
       </c>
@@ -1727,7 +1716,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>105</v>
       </c>
@@ -1741,7 +1730,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>107</v>
       </c>
@@ -1755,7 +1744,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>109</v>
       </c>
@@ -1769,7 +1758,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>111</v>
       </c>
@@ -1783,7 +1772,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>113</v>
       </c>
@@ -1797,7 +1786,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>115</v>
       </c>
@@ -1811,7 +1800,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>117</v>
       </c>
@@ -1825,7 +1814,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>119</v>
       </c>
@@ -1839,7 +1828,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>121</v>
       </c>
@@ -1853,7 +1842,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>123</v>
       </c>
@@ -1867,7 +1856,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>125</v>
       </c>
@@ -1881,7 +1870,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>127</v>
       </c>
@@ -1906,7 +1895,7 @@
         <v>56</v>
       </c>
       <c r="D66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1920,10 +1909,10 @@
         <v>215</v>
       </c>
       <c r="D67" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>133</v>
       </c>
@@ -1934,10 +1923,10 @@
         <v>43</v>
       </c>
       <c r="D68" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>135</v>
       </c>
@@ -1948,10 +1937,10 @@
         <v>42</v>
       </c>
       <c r="D69" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>137</v>
       </c>
@@ -1962,10 +1951,10 @@
         <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>139</v>
       </c>
@@ -1976,10 +1965,10 @@
         <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>141</v>
       </c>
@@ -1990,10 +1979,10 @@
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>143</v>
       </c>
@@ -2004,10 +1993,10 @@
         <v>34</v>
       </c>
       <c r="D73" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>145</v>
       </c>
@@ -2018,10 +2007,10 @@
         <v>44</v>
       </c>
       <c r="D74" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>147</v>
       </c>
@@ -2032,10 +2021,10 @@
         <v>41</v>
       </c>
       <c r="D75" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>149</v>
       </c>
@@ -2046,10 +2035,10 @@
         <v>25</v>
       </c>
       <c r="D76" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>151</v>
       </c>
@@ -2060,10 +2049,10 @@
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>153</v>
       </c>
@@ -2074,10 +2063,10 @@
         <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>155</v>
       </c>
@@ -2088,10 +2077,10 @@
         <v>91</v>
       </c>
       <c r="D79" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>157</v>
       </c>
@@ -2102,10 +2091,10 @@
         <v>136</v>
       </c>
       <c r="D80" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>159</v>
       </c>
@@ -2116,10 +2105,10 @@
         <v>55</v>
       </c>
       <c r="D81" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>161</v>
       </c>
@@ -2130,10 +2119,10 @@
         <v>40</v>
       </c>
       <c r="D82" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>163</v>
       </c>
@@ -2144,7 +2133,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>165</v>
       </c>
@@ -2155,7 +2144,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>167</v>
       </c>
@@ -2166,7 +2155,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>169</v>
       </c>
@@ -2177,7 +2166,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>171</v>
       </c>
@@ -2188,7 +2177,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>173</v>
       </c>
@@ -2199,7 +2188,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>175</v>
       </c>
@@ -2210,7 +2199,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>177</v>
       </c>
@@ -2221,7 +2210,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>179</v>
       </c>
@@ -2232,7 +2221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>181</v>
       </c>
@@ -2243,7 +2232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>183</v>
       </c>
@@ -2254,7 +2243,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>185</v>
       </c>
@@ -2265,7 +2254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>187</v>
       </c>
@@ -2276,7 +2265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>189</v>
       </c>
@@ -2287,7 +2276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>191</v>
       </c>
@@ -2298,7 +2287,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>193</v>
       </c>
@@ -2309,7 +2298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>195</v>
       </c>
@@ -2320,7 +2309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>197</v>
       </c>
@@ -2331,7 +2320,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>199</v>
       </c>
@@ -2342,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>201</v>
       </c>
@@ -2353,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>203</v>
       </c>
@@ -2364,7 +2353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>205</v>
       </c>
@@ -2375,7 +2364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>207</v>
       </c>
@@ -2386,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>209</v>
       </c>
@@ -2397,7 +2386,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>211</v>
       </c>
@@ -2408,7 +2397,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>213</v>
       </c>
@@ -2419,7 +2408,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>215</v>
       </c>
@@ -2430,7 +2419,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>217</v>
       </c>
@@ -2441,7 +2430,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>219</v>
       </c>
@@ -2452,7 +2441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>221</v>
       </c>
@@ -2463,7 +2452,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>223</v>
       </c>
@@ -2474,7 +2463,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>225</v>
       </c>
@@ -2485,7 +2474,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>227</v>
       </c>
@@ -2496,7 +2485,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>229</v>
       </c>
@@ -2507,7 +2496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>231</v>
       </c>
@@ -2518,7 +2507,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>233</v>
       </c>
@@ -2529,7 +2518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>235</v>
       </c>
@@ -2540,7 +2529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>237</v>
       </c>
@@ -2551,7 +2540,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>239</v>
       </c>
@@ -2562,7 +2551,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>241</v>
       </c>
@@ -2573,7 +2562,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>243</v>
       </c>
@@ -2584,7 +2573,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>245</v>
       </c>
@@ -2595,7 +2584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>247</v>
       </c>
@@ -2606,7 +2595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>249</v>
       </c>
@@ -2617,7 +2606,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>251</v>
       </c>
@@ -2628,7 +2617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>253</v>
       </c>
@@ -2639,7 +2628,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>255</v>
       </c>
@@ -2650,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>257</v>
       </c>
@@ -2661,7 +2650,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>259</v>
       </c>
@@ -2672,7 +2661,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>261</v>
       </c>
@@ -2683,7 +2672,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>263</v>
       </c>
@@ -2694,7 +2683,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>265</v>
       </c>
@@ -2705,7 +2694,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>267</v>
       </c>
@@ -2716,7 +2705,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>269</v>
       </c>
@@ -2727,7 +2716,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>271</v>
       </c>
@@ -2738,7 +2727,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>273</v>
       </c>
@@ -2749,7 +2738,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>275</v>
       </c>
@@ -2760,7 +2749,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>277</v>
       </c>
@@ -2771,7 +2760,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>279</v>
       </c>
@@ -2782,7 +2771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>281</v>
       </c>
@@ -2793,7 +2782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>283</v>
       </c>
@@ -2804,7 +2793,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>285</v>
       </c>
@@ -2815,7 +2804,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>287</v>
       </c>
@@ -2826,7 +2815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>289</v>
       </c>
@@ -2837,7 +2826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>291</v>
       </c>
@@ -2848,7 +2837,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>293</v>
       </c>
@@ -2859,7 +2848,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>295</v>
       </c>
@@ -2870,7 +2859,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>297</v>
       </c>
@@ -2881,7 +2870,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>299</v>
       </c>
@@ -2892,7 +2881,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>301</v>
       </c>
@@ -2903,7 +2892,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>303</v>
       </c>
@@ -2914,7 +2903,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>305</v>
       </c>
@@ -2925,7 +2914,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>307</v>
       </c>
@@ -2936,7 +2925,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>309</v>
       </c>
@@ -2947,7 +2936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>311</v>
       </c>
@@ -2958,7 +2947,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>313</v>
       </c>
@@ -2969,7 +2958,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>315</v>
       </c>
@@ -2980,7 +2969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>317</v>
       </c>
@@ -2991,7 +2980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>319</v>
       </c>
@@ -3002,7 +2991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>321</v>
       </c>
@@ -3013,7 +3002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>323</v>
       </c>
@@ -3024,7 +3013,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>325</v>
       </c>
@@ -3035,7 +3024,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>327</v>
       </c>
@@ -3046,7 +3035,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>329</v>
       </c>
@@ -3057,7 +3046,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>331</v>
       </c>
@@ -3068,7 +3057,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>333</v>
       </c>
@@ -3079,7 +3068,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>335</v>
       </c>
@@ -3090,7 +3079,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>337</v>
       </c>
@@ -3101,7 +3090,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>339</v>
       </c>
